--- a/Scripts/CrearUsuario/Default.xlsx
+++ b/Scripts/CrearUsuario/Default.xlsx
@@ -4,14 +4,131 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="CrearUsuario" sheetId="2" r:id="rId2"/>
+    <sheet name="BorrarUsuario" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>ID_Test</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>12jojpjojo123OIJOI34</t>
+  </si>
+  <si>
+    <t>correoElectronico</t>
+  </si>
+  <si>
+    <t>Fran</t>
+  </si>
+  <si>
+    <t>Renta</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>1234QWEqwe</t>
+  </si>
+  <si>
+    <t>prueba3@gmail.com</t>
+  </si>
+  <si>
+    <t>nombreUsuario</t>
+  </si>
+  <si>
+    <t>calle prueba</t>
+  </si>
+  <si>
+    <t>calle auto</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>prueba1@gmail.com</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>calle test</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Cerezo</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>codigoPostal</t>
+  </si>
+  <si>
+    <t>usuario1</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>usuario3comprador</t>
+  </si>
+  <si>
+    <t>123456789QW</t>
+  </si>
+  <si>
+    <t>Escamilla</t>
+  </si>
+  <si>
+    <t>usuario2incorrecto</t>
+  </si>
+  <si>
+    <t>prueba2@gmail.com</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -154,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,15 +279,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,10 +353,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="283845"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -467,16 +637,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.0234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.8984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -484,18 +702,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="1" width="9.41796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.0234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.95703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.41796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.41796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.00390625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.8984375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>988959595</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>999555444</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>666666666</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5">
+        <v>14041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
